--- a/data/birthday_problem_ar_2202.xlsx
+++ b/data/birthday_problem_ar_2202.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Library/CloudStorage/GoogleDrive-kwlee58@gmail.com/내 드라이브/Works/Class/Data_Science/R.WD/r_programming_2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Data_Science/R.WD/r_programming_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F176D9-CB5C-5342-B7AF-CE60E2A1C5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A65761-80D6-BE49-A9AB-3CDF129CB6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="560" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="700" windowWidth="43600" windowHeight="19820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="132">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -52,9 +52,6 @@
     <t>4. 세 개의 문 중에 하나를 선택하여 문 뒤에 있는 선물을 가질 수 있는 게임쇼에 참가했다.  한 문 뒤에는 자동차가 있고, 나머지 두 문 뒤에는 염소가 있다. 이때 어떤 참가자가 1번 문을 선택했을 때, 게임쇼 진행자는 3번 문을 열어 문 뒤에 염소가 있음을 보여주면서 1번 대신 2번을 선택하겠냐고 물었다. 이 때 어떤 선택을 해야 하는가?</t>
   </si>
   <si>
-    <t>이메일 주소</t>
-  </si>
-  <si>
     <t>01/13</t>
   </si>
   <si>
@@ -322,190 +319,79 @@
     <t>01/03</t>
   </si>
   <si>
-    <t>hyunee7979@naver.com</t>
-  </si>
-  <si>
-    <t>chm512@naver.com</t>
-  </si>
-  <si>
     <t>06/14</t>
   </si>
   <si>
-    <t>ijk4400@naver.com</t>
-  </si>
-  <si>
     <t>06/12</t>
   </si>
   <si>
-    <t>dlgbn06@naver.com</t>
-  </si>
-  <si>
     <t>05/02</t>
   </si>
   <si>
-    <t>iyj0502@naver.com</t>
-  </si>
-  <si>
     <t>10/27</t>
   </si>
   <si>
-    <t>alstjr74304@gmail.com</t>
-  </si>
-  <si>
     <t>06/16</t>
   </si>
   <si>
-    <t>hogin0616@gmail.com</t>
-  </si>
-  <si>
     <t>09/22</t>
   </si>
   <si>
-    <t>bbq9088@gmail.com</t>
-  </si>
-  <si>
-    <t>hong_413@naver.com</t>
-  </si>
-  <si>
     <t>06/18</t>
   </si>
   <si>
-    <t>star9173@naver.com</t>
-  </si>
-  <si>
     <t>12/17</t>
   </si>
   <si>
-    <t>sumin8551@gmail.com</t>
-  </si>
-  <si>
     <t>01/10</t>
   </si>
   <si>
-    <t>kohaku05231@naver.com</t>
-  </si>
-  <si>
     <t>12/06</t>
   </si>
   <si>
-    <t>s12m05@naver.com</t>
-  </si>
-  <si>
-    <t>qusdnrud0105@gmail.com</t>
-  </si>
-  <si>
     <t>12/28</t>
   </si>
   <si>
-    <t>wlsaks3684@naver.com</t>
-  </si>
-  <si>
     <t>02/24</t>
   </si>
   <si>
-    <t>totomons02@gmail.com</t>
-  </si>
-  <si>
     <t>01/14</t>
   </si>
   <si>
-    <t>jangsm0114@gmail.com</t>
-  </si>
-  <si>
-    <t>djds5851@gmail.com</t>
-  </si>
-  <si>
-    <t>qwas3212@naver.com</t>
-  </si>
-  <si>
     <t>02/01</t>
   </si>
   <si>
-    <t>chris000201@gmail.com</t>
-  </si>
-  <si>
     <t>12/08</t>
   </si>
   <si>
-    <t>cxxmin02@naver.com</t>
-  </si>
-  <si>
     <t>07/06</t>
   </si>
   <si>
-    <t>tpfk4394@naver.com</t>
-  </si>
-  <si>
-    <t>hjs061905@naver.com</t>
-  </si>
-  <si>
     <t>06/07</t>
   </si>
   <si>
-    <t>car4783@daum.net</t>
-  </si>
-  <si>
-    <t>yw991203@naver.com</t>
-  </si>
-  <si>
     <t>01/02</t>
   </si>
   <si>
-    <t>enterclicks@naver.com</t>
-  </si>
-  <si>
     <t>07/29</t>
   </si>
   <si>
-    <t>klmy0729@naver.com</t>
-  </si>
-  <si>
     <t>02/22</t>
   </si>
   <si>
-    <t>0222harry@naver.com</t>
-  </si>
-  <si>
-    <t>olivia777777mj@gmail.com</t>
-  </si>
-  <si>
     <t>10/24</t>
   </si>
   <si>
-    <t>hs62617@naver.com</t>
-  </si>
-  <si>
     <t>09/19</t>
   </si>
   <si>
-    <t>halltim@naver.com</t>
-  </si>
-  <si>
     <t>06/26</t>
   </si>
   <si>
-    <t>rhw0626@naver.com</t>
-  </si>
-  <si>
-    <t>rahldwd09@naver.com</t>
-  </si>
-  <si>
-    <t>adnrdlf7857@naver.com</t>
-  </si>
-  <si>
     <t>05/03</t>
   </si>
   <si>
-    <t>c_hayoung53@naver.con</t>
-  </si>
-  <si>
     <t>05/10</t>
-  </si>
-  <si>
-    <t>minseong0074@naver.com</t>
-  </si>
-  <si>
-    <t>jeongkeun0919@naver.com</t>
   </si>
   <si>
     <t>04/18</t>
@@ -812,19 +698,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L132"/>
+  <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="18" width="18.83203125" customWidth="1"/>
+    <col min="1" max="17" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -858,11 +744,8 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>44170.730655694446</v>
       </c>
@@ -870,31 +753,31 @@
         <v>20193014</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>44170.857569282409</v>
       </c>
@@ -902,32 +785,31 @@
         <v>20165338</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>44168.21630832176</v>
       </c>
@@ -935,31 +817,31 @@
         <v>20183220</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>44168.931851423607</v>
       </c>
@@ -967,32 +849,31 @@
         <v>20165331</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>44171.785641620372</v>
       </c>
@@ -1000,32 +881,31 @@
         <v>20183232</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>44171.220885891205</v>
       </c>
@@ -1033,32 +913,31 @@
         <v>20173255</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>44170.895575104165</v>
       </c>
@@ -1066,32 +945,31 @@
         <v>20182205</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>44170.71812873843</v>
       </c>
@@ -1099,31 +977,31 @@
         <v>20152664</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>44166.451994328701</v>
       </c>
@@ -1131,32 +1009,31 @@
         <v>20193212</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>44165.54438417824</v>
       </c>
@@ -1164,31 +1041,31 @@
         <v>20173215</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>44167.610226504628</v>
       </c>
@@ -1196,31 +1073,31 @@
         <v>20173258</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>44171.881195497685</v>
       </c>
@@ -1228,31 +1105,31 @@
         <v>20155331</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>44165.590200960651</v>
       </c>
@@ -1260,31 +1137,31 @@
         <v>20187114</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>44169.397635636575</v>
       </c>
@@ -1292,31 +1169,31 @@
         <v>20186522</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>44170.544330300923</v>
       </c>
@@ -1324,31 +1201,31 @@
         <v>20173212</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>44169.074605601854</v>
       </c>
@@ -1356,32 +1233,31 @@
         <v>20193251</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>44171.876512407413</v>
       </c>
@@ -1389,32 +1265,31 @@
         <v>20153326</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>44170.958376643517</v>
       </c>
@@ -1422,31 +1297,31 @@
         <v>20193252</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>44170.56829048611</v>
       </c>
@@ -1454,32 +1329,31 @@
         <v>20173207</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>44171.151798472223</v>
       </c>
@@ -1487,32 +1361,31 @@
         <v>20193211</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>44165.0077140625</v>
       </c>
@@ -1520,31 +1393,31 @@
         <v>20187112</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>44170.692513020833</v>
       </c>
@@ -1552,32 +1425,31 @@
         <v>20186526</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>44171.807237685185</v>
       </c>
@@ -1585,31 +1457,31 @@
         <v>20193213</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>44165.458462916664</v>
       </c>
@@ -1617,32 +1489,31 @@
         <v>20173218</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>44169.686698101854</v>
       </c>
@@ -1650,32 +1521,31 @@
         <v>20193232</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>44171.440799039352</v>
       </c>
@@ -1683,32 +1553,31 @@
         <v>20173210</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>44165.704017453703</v>
       </c>
@@ -1716,31 +1585,31 @@
         <v>20193246</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>44165.988406435186</v>
       </c>
@@ -1748,32 +1617,31 @@
         <v>20193263</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>44171.778694976849</v>
       </c>
@@ -1781,31 +1649,31 @@
         <v>20163216</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>44165.458838749997</v>
       </c>
@@ -1813,31 +1681,31 @@
         <v>20173244</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>44165.157161180556</v>
       </c>
@@ -1845,32 +1713,31 @@
         <v>20155109</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>44168.838232187496</v>
       </c>
@@ -1878,32 +1745,31 @@
         <v>20163136</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>44172.010992800926</v>
       </c>
@@ -1911,31 +1777,31 @@
         <v>20173201</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>44171.864907824071</v>
       </c>
@@ -1943,31 +1809,31 @@
         <v>20163250</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>44165.440939201391</v>
       </c>
@@ -1975,32 +1841,31 @@
         <v>20172815</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L36" s="1"/>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>44171.658689791671</v>
       </c>
@@ -2008,31 +1873,31 @@
         <v>20193260</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>44171.657397534727</v>
       </c>
@@ -2040,32 +1905,31 @@
         <v>20153333</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L38" s="1"/>
-    </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>44170.895910520834</v>
       </c>
@@ -2073,32 +1937,31 @@
         <v>20173226</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39" s="1"/>
-    </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>44167.344756099541</v>
       </c>
@@ -2106,31 +1969,31 @@
         <v>20153327</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>44167.524700208334</v>
       </c>
@@ -2138,31 +2001,31 @@
         <v>20186517</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>44165.621158217589</v>
       </c>
@@ -2170,32 +2033,31 @@
         <v>20163219</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L42" s="1"/>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>44164.964487372687</v>
       </c>
@@ -2203,32 +2065,31 @@
         <v>20192839</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L43" s="1"/>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>44171.752309525458</v>
       </c>
@@ -2236,31 +2097,31 @@
         <v>20193201</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>44166.840625925921</v>
       </c>
@@ -2268,31 +2129,31 @@
         <v>20173204</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>44169.791060173608</v>
       </c>
@@ -2300,32 +2161,31 @@
         <v>20173220</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L46" s="1"/>
-    </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44166.400563067131</v>
       </c>
@@ -2333,32 +2193,31 @@
         <v>20173205</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>44170.432797870366</v>
       </c>
@@ -2366,31 +2225,31 @@
         <v>20173329</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>44165.556353703709</v>
       </c>
@@ -2398,32 +2257,31 @@
         <v>20193907</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L49" s="1"/>
-    </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>44166.784872627315</v>
       </c>
@@ -2431,31 +2289,31 @@
         <v>20193234</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>44165.805738009258</v>
       </c>
@@ -2463,31 +2321,31 @@
         <v>20173221</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J51" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>44164.872649502315</v>
       </c>
@@ -2495,32 +2353,31 @@
         <v>20143418</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L52" s="1"/>
-    </row>
-    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>44165.881642511573</v>
       </c>
@@ -2528,31 +2385,31 @@
         <v>20173237</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>44175.813490324072</v>
       </c>
@@ -2560,31 +2417,31 @@
         <v>20163233</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J54" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>44177.176194236112</v>
       </c>
@@ -2592,31 +2449,31 @@
         <v>20172136</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>44178.11080253472</v>
       </c>
@@ -2624,32 +2481,31 @@
         <v>20173256</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K56" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L56" s="1"/>
-    </row>
-    <row r="57" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>44178.663262638889</v>
       </c>
@@ -2657,32 +2513,31 @@
         <v>20173225</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K57" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L57" s="1"/>
-    </row>
-    <row r="58" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>44178.820200972223</v>
       </c>
@@ -2690,31 +2545,31 @@
         <v>20165302</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>44178.880730474542</v>
       </c>
@@ -2722,31 +2577,31 @@
         <v>20163209</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J59" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>44526.694187349538</v>
       </c>
@@ -2754,32 +2609,31 @@
         <v>20183224</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K60" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L60" s="1"/>
-    </row>
-    <row r="61" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>44529.650493217589</v>
       </c>
@@ -2787,31 +2641,31 @@
         <v>20183244</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>44529.725875833334</v>
       </c>
@@ -2819,31 +2673,31 @@
         <v>20183245</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J62" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>44531.122208321758</v>
       </c>
@@ -2851,31 +2705,31 @@
         <v>20181725</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>44531.476530555556</v>
       </c>
@@ -2883,32 +2737,31 @@
         <v>20203236</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K64" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L64" s="1"/>
-    </row>
-    <row r="65" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>44531.526617349533</v>
       </c>
@@ -2916,31 +2769,31 @@
         <v>20203221</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>44531.538818032408</v>
       </c>
@@ -2948,32 +2801,31 @@
         <v>20183257</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K66" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L66" s="1"/>
-    </row>
-    <row r="67" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>44531.898312592588</v>
       </c>
@@ -2981,32 +2833,31 @@
         <v>20203252</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L67" s="1"/>
-    </row>
-    <row r="68" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>44531.922647858795</v>
       </c>
@@ -3014,31 +2865,31 @@
         <v>20203203</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>44531.976531666667</v>
       </c>
@@ -3046,32 +2897,31 @@
         <v>20182435</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K69" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L69" s="1"/>
-    </row>
-    <row r="70" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>44532.590906342593</v>
       </c>
@@ -3079,32 +2929,31 @@
         <v>20185258</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K70" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L70" s="1"/>
-    </row>
-    <row r="71" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>44532.785519340279</v>
       </c>
@@ -3112,32 +2961,31 @@
         <v>20173236</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K71" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L71" s="1"/>
-    </row>
-    <row r="72" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>44532.88155888889</v>
       </c>
@@ -3145,32 +2993,31 @@
         <v>20153323</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K72" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L72" s="1"/>
-    </row>
-    <row r="73" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>44533.063387523143</v>
       </c>
@@ -3178,32 +3025,31 @@
         <v>20203216</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K73" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K73" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L73" s="1"/>
-    </row>
-    <row r="74" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>44533.733834942133</v>
       </c>
@@ -3211,31 +3057,31 @@
         <v>20183257</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>44533.933703206014</v>
       </c>
@@ -3243,31 +3089,31 @@
         <v>20193247</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>44534.583821643522</v>
       </c>
@@ -3275,32 +3121,31 @@
         <v>20203256</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K76" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K76" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L76" s="1"/>
-    </row>
-    <row r="77" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>44534.774840127313</v>
       </c>
@@ -3308,32 +3153,31 @@
         <v>20183234</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K77" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K77" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L77" s="1"/>
-    </row>
-    <row r="78" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>44534.780092337962</v>
       </c>
@@ -3341,32 +3185,31 @@
         <v>20183224</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L78" s="1"/>
-    </row>
-    <row r="79" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>44534.798410277777</v>
       </c>
@@ -3374,31 +3217,31 @@
         <v>20203255</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J79" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>44534.852472337967</v>
       </c>
@@ -3406,32 +3249,31 @@
         <v>20203238</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L80" s="1"/>
-    </row>
-    <row r="81" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>44534.906464733795</v>
       </c>
@@ -3439,32 +3281,31 @@
         <v>20203212</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I81" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K81" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K81" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L81" s="1"/>
-    </row>
-    <row r="82" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>44534.91184184028</v>
       </c>
@@ -3472,32 +3313,31 @@
         <v>20153313</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K82" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K82" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L82" s="1"/>
-    </row>
-    <row r="83" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>44535.573091226848</v>
       </c>
@@ -3505,31 +3345,31 @@
         <v>20203201</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>44535.672459953705</v>
       </c>
@@ -3537,32 +3377,31 @@
         <v>20203235</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I84" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K84" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K84" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L84" s="1"/>
-    </row>
-    <row r="85" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>44535.753578449076</v>
       </c>
@@ -3570,31 +3409,31 @@
         <v>20163214</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>44536.919151354166</v>
       </c>
@@ -3602,31 +3441,31 @@
         <v>20203223</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>44539.149357303242</v>
       </c>
@@ -3634,31 +3473,31 @@
         <v>20203209</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>44540.803476550922</v>
       </c>
@@ -3666,31 +3505,31 @@
         <v>20165306</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>44540.920297777775</v>
       </c>
@@ -3698,32 +3537,31 @@
         <v>20192604</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K89" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K89" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L89" s="1"/>
-    </row>
-    <row r="90" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>44542.074624953704</v>
       </c>
@@ -3731,32 +3569,31 @@
         <v>20203205</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L90" s="1"/>
-    </row>
-    <row r="91" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>44542.728314120366</v>
       </c>
@@ -3764,32 +3601,31 @@
         <v>20203242</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K91" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K91" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L91" s="1"/>
-    </row>
-    <row r="92" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>44542.730136273152</v>
       </c>
@@ -3797,32 +3633,31 @@
         <v>20173202</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I92" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K92" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K92" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L92" s="1"/>
-    </row>
-    <row r="93" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>44542.798648518517</v>
       </c>
@@ -3830,32 +3665,31 @@
         <v>20202208</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I93" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K93" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K93" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L93" s="1"/>
-    </row>
-    <row r="94" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
         <v>44543.580639849533</v>
       </c>
@@ -3863,31 +3697,31 @@
         <v>20192213</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
         <v>44545.682301064815</v>
       </c>
@@ -3895,31 +3729,31 @@
         <v>20182834</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J95" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J95" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
         <v>44867.591268414355</v>
       </c>
@@ -3927,34 +3761,31 @@
         <v>20192116</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
         <v>44867.620573020831</v>
       </c>
@@ -3962,34 +3793,31 @@
         <v>20185300</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
         <v>44869.602808541662</v>
       </c>
@@ -3997,34 +3825,31 @@
         <v>20213215</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>44869.653118425922</v>
       </c>
@@ -4032,34 +3857,31 @@
         <v>20193528</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>44869.668429039353</v>
       </c>
@@ -4067,34 +3889,31 @@
         <v>20193237</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I100" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K100" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K100" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="101" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
         <v>44869.961650277779</v>
       </c>
@@ -4102,34 +3921,31 @@
         <v>20193264</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
         <v>44870.646269074074</v>
       </c>
@@ -4137,34 +3953,31 @@
         <v>20175338</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I102" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K102" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K102" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="103" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <v>44870.754968263893</v>
       </c>
@@ -4172,34 +3985,31 @@
         <v>20195189</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J103" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J103" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="104" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
         <v>44870.874295914356</v>
       </c>
@@ -4207,34 +4017,31 @@
         <v>20193216</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
         <v>44870.920111736108</v>
       </c>
@@ -4242,34 +4049,31 @@
         <v>20172105</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I105" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K105" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K105" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="106" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
         <v>44871.003787835652</v>
       </c>
@@ -4277,34 +4081,31 @@
         <v>20213222</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I106" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K106" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K106" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="107" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
         <v>44871.089524907409</v>
       </c>
@@ -4312,34 +4113,31 @@
         <v>20183546</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
         <v>44871.385705706023</v>
       </c>
@@ -4347,34 +4145,31 @@
         <v>20193223</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J108" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J108" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="109" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
         <v>44871.497401678236</v>
       </c>
@@ -4382,34 +4177,31 @@
         <v>20193221</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I109" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K109" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K109" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L109" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="110" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
         <v>44871.543893888884</v>
       </c>
@@ -4417,34 +4209,31 @@
         <v>20183243</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J110" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J110" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="111" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
         <v>44871.567323807874</v>
       </c>
@@ -4452,34 +4241,31 @@
         <v>20212624</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I111" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K111" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K111" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L111" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="112" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
         <v>44871.57872046296</v>
       </c>
@@ -4487,34 +4273,31 @@
         <v>20213633</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
         <v>44871.606933587958</v>
       </c>
@@ -4522,34 +4305,31 @@
         <v>20193243</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
         <v>44871.615612210648</v>
       </c>
@@ -4557,34 +4337,31 @@
         <v>20207109</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
         <v>44871.616187071762</v>
       </c>
@@ -4592,34 +4369,31 @@
         <v>20213249</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L115" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
         <v>44871.812754143517</v>
       </c>
@@ -4627,34 +4401,31 @@
         <v>20213254</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I116" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K116" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K116" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L116" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="117" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
         <v>44871.896936990743</v>
       </c>
@@ -4662,34 +4433,31 @@
         <v>20213204</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I117" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K117" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K117" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L117" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="118" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
         <v>44871.899844884261</v>
       </c>
@@ -4697,34 +4465,31 @@
         <v>20193261</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L118" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
         <v>44871.963714513884</v>
       </c>
@@ -4732,34 +4497,31 @@
         <v>20213209</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I119" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J119" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J119" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="120" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
         <v>44871.977721446761</v>
       </c>
@@ -4767,34 +4529,31 @@
         <v>20195220</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L120" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
         <v>44871.987245810189</v>
       </c>
@@ -4802,34 +4561,31 @@
         <v>20193235</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L121" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
         <v>44871.997828749998</v>
       </c>
@@ -4837,34 +4593,31 @@
         <v>20213210</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I122" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J122" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J122" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L122" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="123" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
         <v>44872.404855127315</v>
       </c>
@@ -4872,34 +4625,31 @@
         <v>20194152</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I123" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K123" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K123" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L123" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="124" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
         <v>44872.473259768522</v>
       </c>
@@ -4907,34 +4657,31 @@
         <v>20203207</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L124" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
         <v>44872.585327442124</v>
       </c>
@@ -4942,34 +4689,31 @@
         <v>20175429</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I125" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J125" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J125" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L125" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="126" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
         <v>44872.965947731485</v>
       </c>
@@ -4977,34 +4721,31 @@
         <v>20193231</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L126" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
         <v>44872.9707265162</v>
       </c>
@@ -5012,34 +4753,31 @@
         <v>20213262</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L127" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
         <v>44873.393767280097</v>
       </c>
@@ -5047,34 +4785,31 @@
         <v>20213201</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J128" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J128" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L128" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="129" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
         <v>44873.638772534723</v>
       </c>
@@ -5082,34 +4817,31 @@
         <v>20187113</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I129" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K129" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K129" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L129" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="130" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="2">
         <v>44874.542588587967</v>
       </c>
@@ -5117,34 +4849,31 @@
         <v>20213251</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I130" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J130" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J130" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L130" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="131" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
         <v>44874.543758333333</v>
       </c>
@@ -5152,34 +4881,31 @@
         <v>20203253</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I131" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J131" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J131" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L131" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="132" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
         <v>44874.57226862268</v>
       </c>
@@ -5187,31 +4913,28 @@
         <v>20193249</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L132" s="1" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
